--- a/Statistik/Statistik.xlsx
+++ b/Statistik/Statistik.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\6. Semester\Bachelorarbeit\Git\Statistik\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18900" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Retrofit</t>
   </si>
@@ -102,12 +97,15 @@
   <si>
     <t>GitHub Commits Statistik</t>
   </si>
+  <si>
+    <t>Stackoverflow Questions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -218,17 +216,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="de-AT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -257,7 +245,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -265,34 +252,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -344,7 +309,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$3</c:f>
@@ -409,7 +373,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$4</c:f>
@@ -474,7 +437,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$5</c:f>
@@ -539,7 +501,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$6</c:f>
@@ -604,7 +565,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$7</c:f>
@@ -669,7 +629,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$8</c:f>
@@ -738,7 +697,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$9</c:f>
@@ -807,7 +765,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$10</c:f>
@@ -821,29 +778,38 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="122826880"/>
-        <c:axId val="122827440"/>
+        <c:axId val="178706688"/>
+        <c:axId val="172507136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122826880"/>
+        <c:axId val="178706688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Frameworks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -878,19 +844,17 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122827440"/>
+        <c:crossAx val="172507136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122827440"/>
+        <c:axId val="172507136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -906,9 +870,26 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>GitHub   Stars</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -937,7 +918,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122826880"/>
+        <c:crossAx val="178706688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -952,7 +933,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -983,7 +963,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1012,7 +991,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1020,17 +999,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="de-AT"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1059,7 +1028,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1067,34 +1035,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1146,7 +1092,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$24</c:f>
@@ -1211,7 +1156,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$25</c:f>
@@ -1276,7 +1220,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$26</c:f>
@@ -1341,7 +1284,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$27</c:f>
@@ -1406,7 +1348,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$28</c:f>
@@ -1471,7 +1412,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$29</c:f>
@@ -1540,7 +1480,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$30</c:f>
@@ -1609,7 +1548,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$31</c:f>
@@ -1623,29 +1561,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="329428672"/>
-        <c:axId val="329429232"/>
+        <c:axId val="178766208"/>
+        <c:axId val="178767744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329428672"/>
+        <c:axId val="178766208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1680,19 +1608,17 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329429232"/>
+        <c:crossAx val="178767744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329429232"/>
+        <c:axId val="178767744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1709,8 +1635,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1739,7 +1663,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329428672"/>
+        <c:crossAx val="178766208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,7 +1678,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1785,7 +1708,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1814,7 +1736,751 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-AT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>GitHub Commits</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Retrofit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RESTlet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spring for Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RESTeasy Mobile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RESTDroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jersey</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="113553792"/>
+        <c:axId val="113555328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="113553792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="113555328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113555328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="113553792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2955,15 +3621,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2985,15 +3651,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3007,6 +3673,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3058,7 +3754,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3093,7 +3789,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3270,31 +3966,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="86.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3302,7 +3998,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -3310,7 +4006,7 @@
         <v>5279</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -3318,7 +4014,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -3326,7 +4022,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -3334,7 +4030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3342,7 +4038,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3350,7 +4046,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -3358,17 +4054,17 @@
         <v>806</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="23.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -3376,7 +4072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -3384,7 +4080,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
@@ -3392,7 +4088,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -3400,7 +4096,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -3408,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
         <v>6</v>
       </c>
@@ -3416,7 +4112,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
@@ -3424,12 +4120,81 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="8">
         <v>498</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="23.25">
+      <c r="A53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="6">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="6">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="6">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="8">
+        <v>5897</v>
       </c>
     </row>
   </sheetData>

--- a/Statistik/Statistik.xlsx
+++ b/Statistik/Statistik.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>Retrofit</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Stackoverflow Questions</t>
+  </si>
+  <si>
+    <t>am 24.09.2015</t>
+  </si>
+  <si>
+    <t>am 25.09.2015</t>
   </si>
 </sst>
 </file>
@@ -181,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -197,6 +203,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,7 +325,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>212</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -380,7 +389,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5279</c:v>
+                  <c:v>7273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -444,7 +453,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>290</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -508,7 +517,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>502</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -636,7 +645,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>299</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -704,7 +713,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>115</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -772,23 +781,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>806</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="178706688"/>
-        <c:axId val="172507136"/>
+        <c:axId val="224852224"/>
+        <c:axId val="102457728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="178706688"/>
+        <c:axId val="224852224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -810,48 +819,15 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="172507136"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="102457728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172507136"/>
+        <c:axId val="102457728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,7 +857,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-AT"/>
-                  <a:t>GitHub   Stars</a:t>
+                  <a:t>Anzahl Stars</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -918,7 +894,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178706688"/>
+        <c:crossAx val="224852224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -991,7 +967,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1099,7 +1075,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,7 +1139,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>190</c:v>
+                  <c:v>1036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,7 +1203,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>676</c:v>
+                  <c:v>8516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1291,7 +1267,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
+                  <c:v>492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1355,7 +1331,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1419,7 +1395,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>175</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1487,7 +1463,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1555,67 +1531,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>498</c:v>
+                  <c:v>2657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="178766208"/>
-        <c:axId val="178767744"/>
+        <c:axId val="225293440"/>
+        <c:axId val="225294976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="178766208"/>
+        <c:axId val="225293440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Frameworks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="178767744"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="225294976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178767744"/>
+        <c:axId val="225294976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1634,6 +1595,24 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Anazhl Commits</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1663,7 +1642,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178766208"/>
+        <c:crossAx val="225293440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1736,7 +1715,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1767,7 +1746,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-AT"/>
-              <a:t>GitHub Commits</a:t>
+              <a:t>Stackoverflow Questions</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1791,7 +1770,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$54</c:f>
+              <c:f>Tabelle1!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1839,7 +1818,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$54</c:f>
+              <c:f>Tabelle1!$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1855,7 +1834,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$55</c:f>
+              <c:f>Tabelle1!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1903,7 +1882,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$55</c:f>
+              <c:f>Tabelle1!$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1919,7 +1898,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$56</c:f>
+              <c:f>Tabelle1!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1967,7 +1946,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$56</c:f>
+              <c:f>Tabelle1!$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1983,7 +1962,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$57</c:f>
+              <c:f>Tabelle1!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2031,7 +2010,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$57</c:f>
+              <c:f>Tabelle1!$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2047,7 +2026,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$58</c:f>
+              <c:f>Tabelle1!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2095,7 +2074,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$58</c:f>
+              <c:f>Tabelle1!$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2111,7 +2090,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$59</c:f>
+              <c:f>Tabelle1!$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2159,7 +2138,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$59</c:f>
+              <c:f>Tabelle1!$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2175,7 +2154,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$60</c:f>
+              <c:f>Tabelle1!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2227,7 +2206,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$60</c:f>
+              <c:f>Tabelle1!$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2243,7 +2222,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$61</c:f>
+              <c:f>Tabelle1!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2295,7 +2274,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$61</c:f>
+              <c:f>Tabelle1!$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2308,58 +2287,45 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="113553792"/>
-        <c:axId val="113555328"/>
+        <c:axId val="225378304"/>
+        <c:axId val="225379840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113553792"/>
+        <c:axId val="225378304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Frameworks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="113555328"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="225379840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113555328"/>
+        <c:axId val="225379840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,6 +2344,25 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>Anzahl Questions</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-AT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2407,7 +2392,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113553792"/>
+        <c:crossAx val="225378304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2480,1140 +2465,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="15875" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3651,15 +2506,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3681,15 +2536,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3966,7 +2821,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3974,10 +2829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3995,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4003,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="6">
-        <v>5279</v>
+        <v>7273</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4011,7 +2866,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>290</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4019,7 +2874,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>502</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4035,7 +2890,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>299</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4043,7 +2898,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4051,7 +2906,12 @@
         <v>2</v>
       </c>
       <c r="B10" s="8">
-        <v>806</v>
+        <v>979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="23.25">
@@ -4069,7 +2929,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="4">
-        <v>4</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4077,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="6">
-        <v>190</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4085,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="6">
-        <v>676</v>
+        <v>8516</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4093,7 +2953,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="6">
-        <v>135</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4101,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="6">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4109,7 +2969,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="6">
-        <v>175</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4117,7 +2977,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="6">
-        <v>2</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4125,76 +2985,86 @@
         <v>2</v>
       </c>
       <c r="B31" s="8">
-        <v>498</v>
+        <v>2657</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="23.25">
-      <c r="A53" s="1" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="23.25">
+      <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B40" s="4">
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="5" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B41" s="6">
         <v>4267</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="5" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B42" s="6">
         <v>3379</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="5" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B43" s="6">
         <v>930</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="5" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B44" s="6">
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="5" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B45" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="5" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B46" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="7" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B47" s="8">
         <v>5897</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Statistik/Statistik.xlsx
+++ b/Statistik/Statistik.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>Retrofit</t>
   </si>
@@ -106,6 +106,12 @@
   <si>
     <t>am 25.09.2015</t>
   </si>
+  <si>
+    <t>am 28.09.2015</t>
+  </si>
+  <si>
+    <t>GitHub Last Commit</t>
+  </si>
 </sst>
 </file>
 
@@ -187,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -206,6 +212,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,11 +799,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="224852224"/>
-        <c:axId val="102457728"/>
+        <c:axId val="204249728"/>
+        <c:axId val="204264576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="224852224"/>
+        <c:axId val="204249728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,14 +830,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="102457728"/>
+        <c:crossAx val="204264576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102457728"/>
+        <c:axId val="204264576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +904,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224852224"/>
+        <c:crossAx val="204249728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -967,7 +977,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1539,11 +1549,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="225293440"/>
-        <c:axId val="225294976"/>
+        <c:axId val="203795072"/>
+        <c:axId val="203809536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="225293440"/>
+        <c:axId val="203795072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1569,14 +1579,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="225294976"/>
+        <c:crossAx val="203809536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225294976"/>
+        <c:axId val="203809536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1652,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225293440"/>
+        <c:crossAx val="203795072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1715,7 +1725,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2287,11 +2297,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="225378304"/>
-        <c:axId val="225379840"/>
+        <c:axId val="204470528"/>
+        <c:axId val="204558720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="225378304"/>
+        <c:axId val="204470528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,14 +2328,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="225379840"/>
+        <c:crossAx val="204558720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225379840"/>
+        <c:axId val="204558720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2392,7 +2402,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225378304"/>
+        <c:crossAx val="204470528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2465,7 +2475,217 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-AT"/>
+  <c:style val="28"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>GitHub Last Commit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="44450">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.1749254975215143E-2"/>
+                  <c:y val="-5.0245106065055473E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLblPos val="t"/>
+            <c:showCatName val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Tabelle1!$A$57:$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Resty</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Retrofit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RESTlet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Spring for Android</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Crest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RESTeasy Mobile</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RESTDroid</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jersey</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$57:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>42110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41269</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42262</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41745</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:axId val="89902080"/>
+        <c:axId val="89909120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="89902080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frameworks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89909120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="89909120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Datum</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89902080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2558,6 +2778,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15(eForms)"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2821,7 +3071,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2829,10 +3079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3062,9 +3312,83 @@
         <v>5897</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:2">
       <c r="A49" s="9" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="23.25">
+      <c r="A56" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="10">
+        <v>42110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="11">
+        <v>42274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="13">
+        <v>42202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="11">
+        <v>42197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="11">
+        <v>41269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="11">
+        <v>42262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="11">
+        <v>41745</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="12">
+        <v>42272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Statistik/Statistik.xlsx
+++ b/Statistik/Statistik.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\Bachelor\Bachelorarbeit\Git\Statistik\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18900" windowHeight="10365"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>Retrofit</t>
   </si>
@@ -89,9 +94,6 @@
     </r>
   </si>
   <si>
-    <t>comits seit 01.01.2014</t>
-  </si>
-  <si>
     <t>GitHub Stars Statistik</t>
   </si>
   <si>
@@ -101,23 +103,23 @@
     <t>Stackoverflow Questions</t>
   </si>
   <si>
-    <t>am 24.09.2015</t>
+    <t>GitHub Last Commit</t>
   </si>
   <si>
-    <t>am 25.09.2015</t>
+    <t>am 01.03.2016</t>
   </si>
   <si>
-    <t>am 28.09.2015</t>
+    <t>AndroidAnnotations</t>
   </si>
   <si>
-    <t>GitHub Last Commit</t>
+    <t>Jersey Client</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -216,9 +218,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -234,8 +237,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-AT"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -264,6 +277,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -272,11 +286,13 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -328,6 +344,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$3</c:f>
@@ -335,11 +352,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>232</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F689-47CA-BD58-064ECA2141A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -392,6 +414,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$4</c:f>
@@ -399,11 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7273</c:v>
+                  <c:v>10275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F689-47CA-BD58-064ECA2141A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -456,6 +484,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$5</c:f>
@@ -463,11 +492,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>322</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F689-47CA-BD58-064ECA2141A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -520,6 +554,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$6</c:f>
@@ -527,11 +562,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>550</c:v>
+                  <c:v>581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F689-47CA-BD58-064ECA2141A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -584,6 +624,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$7</c:f>
@@ -591,11 +632,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F689-47CA-BD58-064ECA2141A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -648,6 +694,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$8</c:f>
@@ -655,11 +702,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>345</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F689-47CA-BD58-064ECA2141A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -716,6 +768,7 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$9</c:f>
@@ -723,11 +776,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>129</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F689-47CA-BD58-064ECA2141A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -735,6 +793,39 @@
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AndroidAnnotations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F689-47CA-BD58-064ECA2141A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -784,19 +875,33 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$10</c:f>
+              <c:f>Tabelle1!$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>979</c:v>
+                  <c:v>1260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F689-47CA-BD58-064ECA2141A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
         <c:axId val="204249728"/>
@@ -826,21 +931,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="204264576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="204264576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -873,9 +982,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -901,7 +1012,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="204249728"/>
@@ -919,6 +1030,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -943,12 +1055,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -972,7 +1085,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -984,8 +1097,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-AT"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1014,6 +1137,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1022,17 +1146,19 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$24</c:f>
+              <c:f>Tabelle1!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1078,25 +1204,31 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$24</c:f>
+              <c:f>Tabelle1!$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>93</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-407C-4194-B98A-C89B5A578439}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$25</c:f>
+              <c:f>Tabelle1!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1142,25 +1274,31 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$25</c:f>
+              <c:f>Tabelle1!$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1036</c:v>
+                  <c:v>1248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-407C-4194-B98A-C89B5A578439}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$26</c:f>
+              <c:f>Tabelle1!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1206,25 +1344,31 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$26</c:f>
+              <c:f>Tabelle1!$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8516</c:v>
+                  <c:v>8522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-407C-4194-B98A-C89B5A578439}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$27</c:f>
+              <c:f>Tabelle1!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1270,9 +1414,10 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$27</c:f>
+              <c:f>Tabelle1!$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1282,13 +1427,18 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-407C-4194-B98A-C89B5A578439}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$28</c:f>
+              <c:f>Tabelle1!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1334,9 +1484,10 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$28</c:f>
+              <c:f>Tabelle1!$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1346,13 +1497,18 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-407C-4194-B98A-C89B5A578439}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$29</c:f>
+              <c:f>Tabelle1!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1398,25 +1554,31 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$29</c:f>
+              <c:f>Tabelle1!$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2765</c:v>
+                  <c:v>2932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-407C-4194-B98A-C89B5A578439}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$30</c:f>
+              <c:f>Tabelle1!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1466,9 +1628,10 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$30</c:f>
+              <c:f>Tabelle1!$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1478,13 +1641,51 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-407C-4194-B98A-C89B5A578439}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$31</c:f>
+              <c:f>Tabelle1!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AndroidAnnotations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-407C-4194-B98A-C89B5A578439}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1534,19 +1735,33 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$31</c:f>
+              <c:f>Tabelle1!$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2657</c:v>
+                  <c:v>2721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-407C-4194-B98A-C89B5A578439}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
         <c:axId val="203795072"/>
@@ -1576,20 +1791,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="203809536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="203809536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1622,8 +1842,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1649,7 +1872,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="203795072"/>
@@ -1667,6 +1890,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1691,12 +1915,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1720,7 +1945,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1732,8 +1957,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-AT"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1762,6 +1997,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1770,17 +2006,19 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$40</c:f>
+              <c:f>Tabelle1!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1826,25 +2064,31 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$40</c:f>
+              <c:f>Tabelle1!$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>192</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CEA2-430F-BD33-084E3509E4F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$41</c:f>
+              <c:f>Tabelle1!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1890,25 +2134,31 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$41</c:f>
+              <c:f>Tabelle1!$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4267</c:v>
+                  <c:v>6530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CEA2-430F-BD33-084E3509E4F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$42</c:f>
+              <c:f>Tabelle1!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1954,25 +2204,31 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$42</c:f>
+              <c:f>Tabelle1!$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3379</c:v>
+                  <c:v>3643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CEA2-430F-BD33-084E3509E4F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$43</c:f>
+              <c:f>Tabelle1!$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2018,25 +2274,31 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$43</c:f>
+              <c:f>Tabelle1!$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>930</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CEA2-430F-BD33-084E3509E4F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$44</c:f>
+              <c:f>Tabelle1!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2082,25 +2344,31 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$44</c:f>
+              <c:f>Tabelle1!$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>188</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CEA2-430F-BD33-084E3509E4F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$45</c:f>
+              <c:f>Tabelle1!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2146,9 +2414,10 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$45</c:f>
+              <c:f>Tabelle1!$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2158,13 +2427,18 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CEA2-430F-BD33-084E3509E4F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$46</c:f>
+              <c:f>Tabelle1!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2214,9 +2488,10 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$46</c:f>
+              <c:f>Tabelle1!$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2226,17 +2501,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CEA2-430F-BD33-084E3509E4F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$47</c:f>
+              <c:f>Tabelle1!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jersey</c:v>
+                  <c:v>Jersey Client</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2282,19 +2562,33 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$47</c:f>
+              <c:f>Tabelle1!$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5897</c:v>
+                  <c:v>3746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-CEA2-430F-BD33-084E3509E4F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
         <c:axId val="204470528"/>
@@ -2324,21 +2618,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="204558720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="204558720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2372,8 +2670,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2399,7 +2700,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="204470528"/>
@@ -2417,6 +2718,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2441,12 +2743,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2470,7 +2773,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2482,9 +2785,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-AT"/>
-  <c:style val="28"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="128"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="28"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2503,11 +2815,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2526,16 +2841,48 @@
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
               <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-CFBF-4E2A-A886-C60701599908}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
             <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:strRef>
-              <c:f>Tabelle1!$A$57:$A$64</c:f>
+              <c:f>Tabelle1!$A$60:$A$68</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Resty</c:v>
                 </c:pt>
@@ -2558,6 +2905,9 @@
                   <c:v>RESTDroid</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>AndroidAnnotations</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Jersey</c:v>
                 </c:pt>
               </c:strCache>
@@ -2565,40 +2915,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$57:$B$64</c:f>
+              <c:f>Tabelle1!$B$60:$B$68</c:f>
               <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>42110</c:v>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42274</c:v>
+                  <c:v>42429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42202</c:v>
+                  <c:v>42395</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41269</c:v>
+                  <c:v>40903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42262</c:v>
+                  <c:v>42430</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>41745</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42272</c:v>
+                  <c:v>42426</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CFBF-4E2A-A886-C60701599908}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:axId val="89902080"/>
         <c:axId val="89909120"/>
@@ -2608,6 +2972,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2626,8 +2991,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
@@ -2636,7 +3004,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="89909120"/>
@@ -2648,6 +3016,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -2666,8 +3035,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="89902080"/>
         <c:crosses val="autoZero"/>
@@ -2682,6 +3054,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2703,7 +3076,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2727,13 +3100,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2757,13 +3130,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2787,13 +3160,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3071,324 +3444,354 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="86.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25">
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6">
-        <v>7273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>10275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="14">
+        <v>7044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="B11" s="8">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="6">
+        <v>8522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="6">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="23.25">
-      <c r="A22" s="1" t="s">
+      <c r="B32" s="14">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
+      <c r="B42" s="4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="6">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
+      <c r="B43" s="6">
+        <v>6530</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="6">
-        <v>8516</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
+      <c r="B44" s="6">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="6">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="5" t="s">
+      <c r="B45" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="6">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
+      <c r="B46" s="6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="6">
-        <v>2765</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
+      <c r="B47" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="7" t="s">
+      <c r="B48" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="14">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="8">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="10">
+        <v>42343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="11">
+        <v>42429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="13">
+        <v>42395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="11">
+        <v>42197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="11">
+        <v>40903</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="11">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="11">
+        <v>41745</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="11">
+        <v>42426</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="8">
-        <v>2657</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="23.25">
-      <c r="A39" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="4">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="6">
-        <v>4267</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="6">
-        <v>3379</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="6">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="6">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="8">
-        <v>5897</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="9" t="s">
+      <c r="B68" s="12">
+        <v>42426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="23.25">
-      <c r="A56" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="10">
-        <v>42110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="11">
-        <v>42274</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="13">
-        <v>42202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="11">
-        <v>42197</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="11">
-        <v>41269</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="11">
-        <v>42262</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="11">
-        <v>41745</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="12">
-        <v>42272</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
